--- a/html/cms/static/file/直属领导模板.xlsx
+++ b/html/cms/static/file/直属领导模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11700"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -24,11 +24,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直属领导职务</t>
+    <t>直属领导姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直属领导姓名</t>
+    <t>直属领导岗位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +414,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="12.75" customHeight="1"/>
@@ -427,10 +427,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
